--- a/Samples group.xlsx
+++ b/Samples group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsbar\NT4ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9ABEBB-2B60-4B0F-B200-1ED4EA85292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A32EC-A05E-4AE1-941D-0618ED06B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{774F677E-834A-45B4-A1D5-1A32BD10D899}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{774F677E-834A-45B4-A1D5-1A32BD10D899}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Samples</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>Z005.02</t>
-  </si>
-  <si>
-    <t>dont know</t>
   </si>
   <si>
     <t>Group</t>
@@ -661,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE64B97-3C38-40DD-8429-5A4201AEAC71}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +840,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -891,7 +888,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +904,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +912,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +936,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +952,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -971,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,7 +976,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -987,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1003,7 +1000,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1008,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1024,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1032,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1056,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1080,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,7 +1096,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1136,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1144,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1160,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +1168,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +1200,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1216,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1224,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Samples group.xlsx
+++ b/Samples group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsbar\NT4ALS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsbar\OneDrive\Ambiente de Trabalho\NT4ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A32EC-A05E-4AE1-941D-0618ED06B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FFCC1-0086-4EB0-8BA5-D5A5D0486A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{774F677E-834A-45B4-A1D5-1A32BD10D899}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{774F677E-834A-45B4-A1D5-1A32BD10D899}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="89">
   <si>
     <t>Samples</t>
   </si>
@@ -255,6 +255,54 @@
   </si>
   <si>
     <t>Patient</t>
+  </si>
+  <si>
+    <t>A115.01</t>
+  </si>
+  <si>
+    <t>A116.01</t>
+  </si>
+  <si>
+    <t>A117.01</t>
+  </si>
+  <si>
+    <t>A118.01</t>
+  </si>
+  <si>
+    <t>A119.01</t>
+  </si>
+  <si>
+    <t>A120.01</t>
+  </si>
+  <si>
+    <t>A121.01</t>
+  </si>
+  <si>
+    <t>A122.01</t>
+  </si>
+  <si>
+    <t>A123.01</t>
+  </si>
+  <si>
+    <t>A124.01</t>
+  </si>
+  <si>
+    <t>A125.01</t>
+  </si>
+  <si>
+    <t>A126.01</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Feminino</t>
   </si>
 </sst>
 </file>
@@ -291,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,14 +362,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE64B97-3C38-40DD-8429-5A4201AEAC71}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,567 +733,1160 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>94</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>63</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>61</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>63</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>70</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="3">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="5">
+        <v>65</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="3">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="3">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3">
+        <v>69</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="3">
+        <v>66</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="3">
+        <v>60</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="3">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3">
+        <v>62</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="3">
+        <v>64</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="3">
+        <v>63</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="3">
+        <v>63</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="3">
+        <v>64</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="3">
+        <v>72</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="3">
+        <v>80</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="3">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3">
+        <v>79</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="3">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="3">
+        <v>79</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3">
+        <v>59</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="3">
+        <v>57</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3">
+        <v>64</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="D69" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3">
+        <v>66</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3">
+        <v>60</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="3">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3">
+        <v>75</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="3">
+        <v>64</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="3">
+        <v>37</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="3">
+        <v>71</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="3">
+        <v>71</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="3">
+        <v>65</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="3">
+        <v>54</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="3">
+        <v>65</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>72</v>
+      <c r="B82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="4">
+        <v>61</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D82" xr:uid="{62D54B83-8EBE-49FF-AF62-9865AB3BD417}">
+      <formula1>$R$3:$R$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>